--- a/97_enquete/5.xlsx
+++ b/97_enquete/5.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="6675" windowHeight="7755"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8000" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Doutorado</t>
   </si>
@@ -27,9 +32,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>Usei o R na monografia, mas não durante o mestrado.</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -39,20 +41,57 @@
     <t>PPGE</t>
   </si>
   <si>
-    <t>Questões</t>
-  </si>
-  <si>
     <t>Respostas</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>Usei o R na monografia, mas não durante o mestrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,51 +426,57 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -440,26 +488,31 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -469,9 +522,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -481,8 +539,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>